--- a/biology/Botanique/Cabernet_mitos/Cabernet_mitos.xlsx
+++ b/biology/Botanique/Cabernet_mitos/Cabernet_mitos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le  cabernet mitos  est un cépage de cuve de raisins noirs.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cépage est une obtention de l'institut Staatliche Lehr- und Versuchsanstalt für Wein- und Obstbau Weinsberg à Weinsberg. L'origine génétique est vérifiée et c'est un croisement des cépages blaufränkisch x cabernet-sauvignon (le clone Levadoux) réalisé en 1970.
 </t>
@@ -543,7 +557,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont moyennes et les baies sont de taille petite à moyenne. La grappe est moyennement compacte. Le cépage est assez résistant au mildiou et à l'oïdium et résistant à la pourriture grise. Le cépage donne des vins corsé et bien coloré même dans des vignobles septentrionaux.
 </t>
@@ -574,7 +590,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le  cabernet mitos  est connu sous le sigle de We 70-77-4F
 </t>
